--- a/Code/Results/Cases/Case_4_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.976114112939797</v>
+        <v>1.462840114874638</v>
       </c>
       <c r="C2">
-        <v>0.068395538963685</v>
+        <v>0.03909597882196891</v>
       </c>
       <c r="D2">
-        <v>0.283523705126612</v>
+        <v>0.5212896238752194</v>
       </c>
       <c r="E2">
-        <v>0.07240482839051232</v>
+        <v>0.1617850459137635</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.984958803364037</v>
+        <v>4.684645036334302</v>
       </c>
       <c r="H2">
-        <v>2.335219842745175</v>
+        <v>3.341293950262951</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02855041778147083</v>
+        <v>0.05605884564244512</v>
       </c>
       <c r="K2">
-        <v>0.7091429868485761</v>
+        <v>0.8291815869093</v>
       </c>
       <c r="L2">
-        <v>0.1929943827456597</v>
+        <v>0.4168552195945665</v>
       </c>
       <c r="M2">
-        <v>0.228823661129482</v>
+        <v>0.4023072943066772</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8739376164357395</v>
+        <v>1.450873262681398</v>
       </c>
       <c r="C3">
-        <v>0.06387135147183542</v>
+        <v>0.03759667802400557</v>
       </c>
       <c r="D3">
-        <v>0.2673623753113077</v>
+        <v>0.5194637119972185</v>
       </c>
       <c r="E3">
-        <v>0.07079534802256759</v>
+        <v>0.1618235631522111</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.747473207692252</v>
+        <v>4.619952377051931</v>
       </c>
       <c r="H3">
-        <v>2.228779921265982</v>
+        <v>3.314593868655209</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02823994556918441</v>
+        <v>0.05586085644171401</v>
       </c>
       <c r="K3">
-        <v>0.6217793289905984</v>
+        <v>0.8170858302977848</v>
       </c>
       <c r="L3">
-        <v>0.1823145898572989</v>
+        <v>0.4166258814617549</v>
       </c>
       <c r="M3">
-        <v>0.2085789350740264</v>
+        <v>0.4004843631496975</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8128183429265903</v>
+        <v>1.444492841053375</v>
       </c>
       <c r="C4">
-        <v>0.06109340389619788</v>
+        <v>0.03665206546729749</v>
       </c>
       <c r="D4">
-        <v>0.2577752330929002</v>
+        <v>0.5185302292796621</v>
       </c>
       <c r="E4">
-        <v>0.06986341334436474</v>
+        <v>0.1618820773932921</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.604996999981552</v>
+        <v>4.581139980676852</v>
       </c>
       <c r="H4">
-        <v>2.165207428991437</v>
+        <v>3.298798990830988</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02804657716387116</v>
+        <v>0.05573350597198257</v>
       </c>
       <c r="K4">
-        <v>0.5693346398665398</v>
+        <v>0.8103379899158938</v>
       </c>
       <c r="L4">
-        <v>0.1760225112868952</v>
+        <v>0.4166555634710321</v>
       </c>
       <c r="M4">
-        <v>0.1965183609127941</v>
+        <v>0.3995931291012411</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7882861530289631</v>
+        <v>1.442136229830965</v>
       </c>
       <c r="C5">
-        <v>0.05995972215875511</v>
+        <v>0.03626102529050357</v>
       </c>
       <c r="D5">
-        <v>0.2539476701213914</v>
+        <v>0.5181970707447192</v>
       </c>
       <c r="E5">
-        <v>0.06949718920701287</v>
+        <v>0.1619147057539685</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.547704936410753</v>
+        <v>4.565551681334568</v>
       </c>
       <c r="H5">
-        <v>2.139715592116772</v>
+        <v>3.292512954018179</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02796698893751337</v>
+        <v>0.05568014804490318</v>
       </c>
       <c r="K5">
-        <v>0.5482360730591864</v>
+        <v>0.8077589847301425</v>
       </c>
       <c r="L5">
-        <v>0.1735213373498112</v>
+        <v>0.416710597049601</v>
       </c>
       <c r="M5">
-        <v>0.1916899340234863</v>
+        <v>0.3992873581519589</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7842343124354159</v>
+        <v>1.441759627906322</v>
       </c>
       <c r="C6">
-        <v>0.05977133052809691</v>
+        <v>0.03619572304462793</v>
       </c>
       <c r="D6">
-        <v>0.2533167485733543</v>
+        <v>0.5181446052201579</v>
       </c>
       <c r="E6">
-        <v>0.06943717914644054</v>
+        <v>0.1619206546444758</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.538236014052899</v>
+        <v>4.562977014959614</v>
       </c>
       <c r="H6">
-        <v>2.135506783883102</v>
+        <v>3.291478248487238</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02795372291349452</v>
+        <v>0.05567119951908506</v>
       </c>
       <c r="K6">
-        <v>0.544748385793099</v>
+        <v>0.8073410601899838</v>
       </c>
       <c r="L6">
-        <v>0.1731097113949289</v>
+        <v>0.4167223306163521</v>
       </c>
       <c r="M6">
-        <v>0.1908932080060453</v>
+        <v>0.3992400548398258</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8124860183543774</v>
+        <v>1.444460072888177</v>
       </c>
       <c r="C7">
-        <v>0.06107812339223528</v>
+        <v>0.03664681655025603</v>
       </c>
       <c r="D7">
-        <v>0.2577232988871572</v>
+        <v>0.5185255448178623</v>
       </c>
       <c r="E7">
-        <v>0.06985842024133149</v>
+        <v>0.1618824818454598</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.604221320597418</v>
+        <v>4.580928828720687</v>
       </c>
       <c r="H7">
-        <v>2.164862001823508</v>
+        <v>3.29871360596016</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02804550713174958</v>
+        <v>0.0557327922951254</v>
       </c>
       <c r="K7">
-        <v>0.5690490270389574</v>
+        <v>0.8103025169356641</v>
       </c>
       <c r="L7">
-        <v>0.17598852976937</v>
+        <v>0.4166561317319974</v>
       </c>
       <c r="M7">
-        <v>0.1964529018349772</v>
+        <v>0.3995887728082899</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9405277427082979</v>
+        <v>1.458513315577079</v>
       </c>
       <c r="C8">
-        <v>0.06683459715111439</v>
+        <v>0.03858397284178849</v>
       </c>
       <c r="D8">
-        <v>0.2778782939570448</v>
+        <v>0.5206211406459573</v>
       </c>
       <c r="E8">
-        <v>0.07183781619175456</v>
+        <v>0.1617911001292107</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.902335469506511</v>
+        <v>4.662149957451732</v>
       </c>
       <c r="H8">
-        <v>2.298128500474888</v>
+        <v>3.331963327346045</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02844387199105736</v>
+        <v>0.05599177523296994</v>
       </c>
       <c r="K8">
-        <v>0.6787541224706786</v>
+        <v>0.8248700660718953</v>
       </c>
       <c r="L8">
-        <v>0.1892545240534034</v>
+        <v>0.4167407950604272</v>
       </c>
       <c r="M8">
-        <v>0.2217623931638322</v>
+        <v>0.4016314539965222</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.206044640382885</v>
+        <v>1.493740530991317</v>
       </c>
       <c r="C9">
-        <v>0.07820283986225718</v>
+        <v>0.04219476107989095</v>
       </c>
       <c r="D9">
-        <v>0.3203242171031206</v>
+        <v>0.5262174432228193</v>
       </c>
       <c r="E9">
-        <v>0.07619598378902914</v>
+        <v>0.1618879004839364</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.516978962460769</v>
+        <v>4.828672949118754</v>
       </c>
       <c r="H9">
-        <v>2.575256155757728</v>
+        <v>3.401930511998785</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02920832747065871</v>
+        <v>0.05645406687424437</v>
       </c>
       <c r="K9">
-        <v>0.9047592491449166</v>
+        <v>0.8588257200107137</v>
       </c>
       <c r="L9">
-        <v>0.2175631461664196</v>
+        <v>0.4182572547152716</v>
       </c>
       <c r="M9">
-        <v>0.2746547583553003</v>
+        <v>0.4074444984251109</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.412356391715633</v>
+        <v>1.524295256288895</v>
       </c>
       <c r="C10">
-        <v>0.08672775956382139</v>
+        <v>0.04473693970265913</v>
       </c>
       <c r="D10">
-        <v>0.3536820261907678</v>
+        <v>0.5312339289915116</v>
       </c>
       <c r="E10">
-        <v>0.07973416496204067</v>
+        <v>0.1621265488784367</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.992267071155993</v>
+        <v>4.955499191467425</v>
       </c>
       <c r="H10">
-        <v>2.791012843326627</v>
+        <v>3.456262470215734</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02976745292593064</v>
+        <v>0.05676638214067697</v>
       </c>
       <c r="K10">
-        <v>1.079544950014963</v>
+        <v>0.8870648165081434</v>
       </c>
       <c r="L10">
-        <v>0.240048735924006</v>
+        <v>0.4201921811055627</v>
       </c>
       <c r="M10">
-        <v>0.3160027638512233</v>
+        <v>0.4128155415928489</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.509261230168079</v>
+        <v>1.539210316648735</v>
       </c>
       <c r="C11">
-        <v>0.09067478418783281</v>
+        <v>0.04587026369598846</v>
       </c>
       <c r="D11">
-        <v>0.3694262797248484</v>
+        <v>0.5337123101557353</v>
       </c>
       <c r="E11">
-        <v>0.08142811506474601</v>
+        <v>0.1622713506626745</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.214974441321999</v>
+        <v>5.01418338459024</v>
       </c>
       <c r="H11">
-        <v>2.892430764319897</v>
+        <v>3.481620377039576</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03002321030442401</v>
+        <v>0.05690262483986963</v>
       </c>
       <c r="K11">
-        <v>1.161484226038766</v>
+        <v>0.9006282079105574</v>
       </c>
       <c r="L11">
-        <v>0.2507162779780003</v>
+        <v>0.4212501966082129</v>
       </c>
       <c r="M11">
-        <v>0.3354779309645792</v>
+        <v>0.4154976392904146</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.546452051882682</v>
+        <v>1.545004207498465</v>
       </c>
       <c r="C12">
-        <v>0.0921822979432747</v>
+        <v>0.04629616416309545</v>
       </c>
       <c r="D12">
-        <v>0.3754791122453582</v>
+        <v>0.53467900634584</v>
       </c>
       <c r="E12">
-        <v>0.08208275537249676</v>
+        <v>0.1623313808134483</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.300365943681697</v>
+        <v>5.036548826708668</v>
       </c>
       <c r="H12">
-        <v>2.931363147677189</v>
+        <v>3.491315366269646</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03012044542891434</v>
+        <v>0.05695338541384309</v>
       </c>
       <c r="K12">
-        <v>1.192910757831612</v>
+        <v>0.9058675242530967</v>
       </c>
       <c r="L12">
-        <v>0.2548255625903408</v>
+        <v>0.4216763595351125</v>
       </c>
       <c r="M12">
-        <v>0.3429599817256417</v>
+        <v>0.4165475773418095</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.538419367799861</v>
+        <v>1.543749903716673</v>
       </c>
       <c r="C13">
-        <v>0.09185700538849062</v>
+        <v>0.04620458310802178</v>
       </c>
       <c r="D13">
-        <v>0.3741713352002733</v>
+        <v>0.5344695581640622</v>
       </c>
       <c r="E13">
-        <v>0.08194116307857868</v>
+        <v>0.1623182213410175</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.281926250277422</v>
+        <v>5.031725658353139</v>
       </c>
       <c r="H13">
-        <v>2.922953916668007</v>
+        <v>3.489223260031451</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03009948382206939</v>
+        <v>0.05694249009072472</v>
       </c>
       <c r="K13">
-        <v>1.186123963219131</v>
+        <v>0.9047345556872415</v>
       </c>
       <c r="L13">
-        <v>0.253937340879304</v>
+        <v>0.4215834437518282</v>
       </c>
       <c r="M13">
-        <v>0.3413436231997053</v>
+        <v>0.4163199303140956</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.512310677136242</v>
+        <v>1.539684060719992</v>
       </c>
       <c r="C14">
-        <v>0.09079853243537883</v>
+        <v>0.04590536786479049</v>
       </c>
       <c r="D14">
-        <v>0.3699223752992395</v>
+        <v>0.5337912761987553</v>
       </c>
       <c r="E14">
-        <v>0.08148170227557472</v>
+        <v>0.1622761853078956</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.221977717667926</v>
+        <v>5.016020533304697</v>
       </c>
       <c r="H14">
-        <v>2.895622830038178</v>
+        <v>3.482416134768357</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03003120104904911</v>
+        <v>0.05690681756931415</v>
       </c>
       <c r="K14">
-        <v>1.164061433475524</v>
+        <v>0.9010571821715416</v>
       </c>
       <c r="L14">
-        <v>0.2510529135971922</v>
+        <v>0.4212847462215876</v>
       </c>
       <c r="M14">
-        <v>0.3360912646245993</v>
+        <v>0.4155833314708914</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.49638458799248</v>
+        <v>1.537212608053352</v>
       </c>
       <c r="C15">
-        <v>0.09015195515659968</v>
+        <v>0.04572166653109377</v>
       </c>
       <c r="D15">
-        <v>0.3673318729467496</v>
+        <v>0.5333794782653172</v>
       </c>
       <c r="E15">
-        <v>0.08120201810215022</v>
+        <v>0.1622511133861408</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.185399032341877</v>
+        <v>5.00641933322072</v>
       </c>
       <c r="H15">
-        <v>2.878952269795889</v>
+        <v>3.478258625577951</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0299894318579601</v>
+        <v>0.05688485902913687</v>
       </c>
       <c r="K15">
-        <v>1.150600850447717</v>
+        <v>0.8988181188632609</v>
       </c>
       <c r="L15">
-        <v>0.2492954064836823</v>
+        <v>0.4211051066643279</v>
       </c>
       <c r="M15">
-        <v>0.3328883692668612</v>
+        <v>0.4151366069635145</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.406089522321537</v>
+        <v>1.523340944248616</v>
       </c>
       <c r="C16">
-        <v>0.08647144428601194</v>
+        <v>0.0446624141503662</v>
       </c>
       <c r="D16">
-        <v>0.3526653060985865</v>
+        <v>0.5310759079513332</v>
       </c>
       <c r="E16">
-        <v>0.07962524647312108</v>
+        <v>0.1621178137422774</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.977853567357869</v>
+        <v>4.951684020645928</v>
       </c>
       <c r="H16">
-        <v>2.784455511800985</v>
+        <v>3.45461820569551</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02975078206855208</v>
+        <v>0.05675736161575884</v>
       </c>
       <c r="K16">
-        <v>1.074242938405405</v>
+        <v>0.8861928512567658</v>
       </c>
       <c r="L16">
-        <v>0.2393609665619749</v>
+        <v>0.4201266106830559</v>
       </c>
       <c r="M16">
-        <v>0.3147443679994879</v>
+        <v>0.4126450607386616</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.35151638067876</v>
+        <v>1.515091124428011</v>
       </c>
       <c r="C17">
-        <v>0.08423322957924739</v>
+        <v>0.04400671720284066</v>
       </c>
       <c r="D17">
-        <v>0.3438198005667914</v>
+        <v>0.5297129987037437</v>
       </c>
       <c r="E17">
-        <v>0.07868027608444095</v>
+        <v>0.162045310262922</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.852278617299618</v>
+        <v>4.918359749691376</v>
       </c>
       <c r="H17">
-        <v>2.727361236340101</v>
+        <v>3.440280137594669</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.029604862414224</v>
+        <v>0.05667765753266174</v>
       </c>
       <c r="K17">
-        <v>1.028054870586857</v>
+        <v>0.8786313770564504</v>
       </c>
       <c r="L17">
-        <v>0.2333833847763884</v>
+        <v>0.4195718377552566</v>
       </c>
       <c r="M17">
-        <v>0.3037919351424989</v>
+        <v>0.4111776991594525</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.320410990436415</v>
+        <v>1.510441644611092</v>
       </c>
       <c r="C18">
-        <v>0.08295216716741294</v>
+        <v>0.04362739730705556</v>
       </c>
       <c r="D18">
-        <v>0.3387851306714822</v>
+        <v>0.5289475742145271</v>
       </c>
       <c r="E18">
-        <v>0.07814463144588757</v>
+        <v>0.1620070200520658</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.780654645937091</v>
+        <v>4.899285685473757</v>
       </c>
       <c r="H18">
-        <v>2.694826052915545</v>
+        <v>3.43209367983647</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02952105372598757</v>
+        <v>0.05663126459007284</v>
       </c>
       <c r="K18">
-        <v>1.001714082584584</v>
+        <v>0.8743497303320851</v>
       </c>
       <c r="L18">
-        <v>0.2299860983356723</v>
+        <v>0.41926948625688</v>
       </c>
       <c r="M18">
-        <v>0.2975542941102205</v>
+        <v>0.4103561899284429</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.309926338913442</v>
+        <v>1.508883834609179</v>
       </c>
       <c r="C19">
-        <v>0.08251941920028827</v>
+        <v>0.04349858978352472</v>
       </c>
       <c r="D19">
-        <v>0.3370893288586245</v>
+        <v>0.5286915909338745</v>
       </c>
       <c r="E19">
-        <v>0.07796459430649705</v>
+        <v>0.1619946420762872</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.756504093419636</v>
+        <v>4.892843519517072</v>
       </c>
       <c r="H19">
-        <v>2.683860740710912</v>
+        <v>3.429332257684933</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0294926929989261</v>
+        <v>0.05661546218946789</v>
       </c>
       <c r="K19">
-        <v>0.9928328495738583</v>
+        <v>0.872911633596118</v>
       </c>
       <c r="L19">
-        <v>0.2288426623545661</v>
+        <v>0.4191699918474825</v>
       </c>
       <c r="M19">
-        <v>0.2954526378387712</v>
+        <v>0.4100819032728964</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.357296041454873</v>
+        <v>1.515959438935369</v>
       </c>
       <c r="C20">
-        <v>0.08447081915188903</v>
+        <v>0.04407674247960358</v>
       </c>
       <c r="D20">
-        <v>0.3447558695020518</v>
+        <v>0.5298561699653703</v>
       </c>
       <c r="E20">
-        <v>0.07878004731996668</v>
+        <v>0.1620526753706066</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.865582982934768</v>
+        <v>4.921897527596997</v>
       </c>
       <c r="H20">
-        <v>2.733407165252686</v>
+        <v>3.441800194965339</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02962038208869178</v>
+        <v>0.05668619896449822</v>
       </c>
       <c r="K20">
-        <v>1.032948008058611</v>
+        <v>0.8794293214919549</v>
       </c>
       <c r="L20">
-        <v>0.2340154338063343</v>
+        <v>0.4196291622255472</v>
       </c>
       <c r="M20">
-        <v>0.304951353527791</v>
+        <v>0.4113315762595988</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.519965519971038</v>
+        <v>1.540874339388694</v>
       </c>
       <c r="C21">
-        <v>0.09110905742106468</v>
+        <v>0.0459933427547341</v>
       </c>
       <c r="D21">
-        <v>0.3711678572493184</v>
+        <v>0.5339897394495523</v>
       </c>
       <c r="E21">
-        <v>0.08161629058917796</v>
+        <v>0.1622883913818107</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.239556324448984</v>
+        <v>5.020629623059619</v>
       </c>
       <c r="H21">
-        <v>2.903635825362585</v>
+        <v>3.484413040602817</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03005124533151315</v>
+        <v>0.05691731796726973</v>
       </c>
       <c r="K21">
-        <v>1.170530520059202</v>
+        <v>0.90213451622202</v>
       </c>
       <c r="L21">
-        <v>0.2518981914003575</v>
+        <v>0.4213717888635387</v>
       </c>
       <c r="M21">
-        <v>0.3376310019024515</v>
+        <v>0.4157987582943861</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.629195485480437</v>
+        <v>1.558007908251483</v>
       </c>
       <c r="C22">
-        <v>0.09552411464134991</v>
+        <v>0.04722695078961436</v>
       </c>
       <c r="D22">
-        <v>0.3889638349368454</v>
+        <v>0.5368555398563188</v>
       </c>
       <c r="E22">
-        <v>0.08354731288879336</v>
+        <v>0.1624727301669253</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.490197295281575</v>
+        <v>5.085990622918359</v>
       </c>
       <c r="H22">
-        <v>3.017996566395993</v>
+        <v>3.512802245541764</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03033518656015755</v>
+        <v>0.05706352372037493</v>
       </c>
       <c r="K22">
-        <v>1.262794439586031</v>
+        <v>0.9175749456651658</v>
       </c>
       <c r="L22">
-        <v>0.2639955703166379</v>
+        <v>0.4226593956774991</v>
       </c>
       <c r="M22">
-        <v>0.3596202822898036</v>
+        <v>0.4189181419439905</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.570610453076569</v>
+        <v>1.548785652135848</v>
       </c>
       <c r="C23">
-        <v>0.09315964497244522</v>
+        <v>0.04657026944297371</v>
       </c>
       <c r="D23">
-        <v>0.379413715980192</v>
+        <v>0.5353109929922795</v>
       </c>
       <c r="E23">
-        <v>0.08250923858142656</v>
+        <v>0.1623715787178845</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.355811664067119</v>
+        <v>5.051029726050388</v>
       </c>
       <c r="H23">
-        <v>2.956655251609106</v>
+        <v>3.497600991981642</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03018336079694262</v>
+        <v>0.05698593188858236</v>
       </c>
       <c r="K23">
-        <v>1.213319318796835</v>
+        <v>0.9092790764284473</v>
       </c>
       <c r="L23">
-        <v>0.2574990838513145</v>
+        <v>0.4219585869128082</v>
       </c>
       <c r="M23">
-        <v>0.3478223091442985</v>
+        <v>0.4172350007918695</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.354682221752853</v>
+        <v>1.515566582846134</v>
       </c>
       <c r="C24">
-        <v>0.08436338731709014</v>
+        <v>0.04404509138056767</v>
       </c>
       <c r="D24">
-        <v>0.3443325153890271</v>
+        <v>0.5297913857626213</v>
       </c>
       <c r="E24">
-        <v>0.07873491705140978</v>
+        <v>0.1620493350359133</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.859566310634705</v>
+        <v>4.920297835031022</v>
       </c>
       <c r="H24">
-        <v>2.730672904659173</v>
+        <v>3.44111280044828</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0296133654006363</v>
+        <v>0.05668233915926724</v>
       </c>
       <c r="K24">
-        <v>1.030735159694672</v>
+        <v>0.8790683666484256</v>
       </c>
       <c r="L24">
-        <v>0.233729562505971</v>
+        <v>0.4196031941384177</v>
       </c>
       <c r="M24">
-        <v>0.3044269973754012</v>
+        <v>0.4112619395915189</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.13243232582883</v>
+        <v>1.483389854692234</v>
       </c>
       <c r="C25">
-        <v>0.07510683856701661</v>
+        <v>0.04123766562749509</v>
       </c>
       <c r="D25">
-        <v>0.308490349429448</v>
+        <v>0.5245444815273714</v>
       </c>
       <c r="E25">
-        <v>0.07496149034923683</v>
+        <v>0.1618322416534674</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4.34695746459002</v>
+        <v>4.782841574439345</v>
       </c>
       <c r="H25">
-        <v>2.498348194106939</v>
+        <v>3.382490143734657</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02900256797208334</v>
+        <v>0.05633383685458337</v>
       </c>
       <c r="K25">
-        <v>0.8422487690537537</v>
+        <v>0.8490622412420237</v>
       </c>
       <c r="L25">
-        <v>0.2096311132416915</v>
+        <v>0.4177026993107091</v>
       </c>
       <c r="M25">
-        <v>0.2599480476653895</v>
+        <v>0.4056785996395078</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_118/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_118/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.462840114874638</v>
+        <v>0.9761141129395696</v>
       </c>
       <c r="C2">
-        <v>0.03909597882196891</v>
+        <v>0.0683955389634221</v>
       </c>
       <c r="D2">
-        <v>0.5212896238752194</v>
+        <v>0.2835237051265835</v>
       </c>
       <c r="E2">
-        <v>0.1617850459137635</v>
+        <v>0.07240482839053186</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4.684645036334302</v>
+        <v>3.984958803364037</v>
       </c>
       <c r="H2">
-        <v>3.341293950262951</v>
+        <v>2.335219842745232</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05605884564244512</v>
+        <v>0.02855041778154588</v>
       </c>
       <c r="K2">
-        <v>0.8291815869093</v>
+        <v>0.7091429868484624</v>
       </c>
       <c r="L2">
-        <v>0.4168552195945665</v>
+        <v>0.1929943827457805</v>
       </c>
       <c r="M2">
-        <v>0.4023072943066772</v>
+        <v>0.2288236611294856</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.450873262681398</v>
+        <v>0.8739376164359669</v>
       </c>
       <c r="C3">
-        <v>0.03759667802400557</v>
+        <v>0.06387135147256018</v>
       </c>
       <c r="D3">
-        <v>0.5194637119972185</v>
+        <v>0.2673623753110519</v>
       </c>
       <c r="E3">
-        <v>0.1618235631522111</v>
+        <v>0.07079534802256582</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.619952377051931</v>
+        <v>3.747473207692366</v>
       </c>
       <c r="H3">
-        <v>3.314593868655209</v>
+        <v>2.228779921265897</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05586085644171401</v>
+        <v>0.02823994556919684</v>
       </c>
       <c r="K3">
-        <v>0.8170858302977848</v>
+        <v>0.62177932899057</v>
       </c>
       <c r="L3">
-        <v>0.4166258814617549</v>
+        <v>0.1823145898574126</v>
       </c>
       <c r="M3">
-        <v>0.4004843631496975</v>
+        <v>0.2085789350740299</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.444492841053375</v>
+        <v>0.8128183429266187</v>
       </c>
       <c r="C4">
-        <v>0.03665206546729749</v>
+        <v>0.06109340389616946</v>
       </c>
       <c r="D4">
-        <v>0.5185302292796621</v>
+        <v>0.2577752330929002</v>
       </c>
       <c r="E4">
-        <v>0.1618820773932921</v>
+        <v>0.06986341334432211</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.581139980676852</v>
+        <v>3.604996999981552</v>
       </c>
       <c r="H4">
-        <v>3.298798990830988</v>
+        <v>2.165207428991408</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05573350597198257</v>
+        <v>0.02804657716385917</v>
       </c>
       <c r="K4">
-        <v>0.8103379899158938</v>
+        <v>0.5693346398665824</v>
       </c>
       <c r="L4">
-        <v>0.4166555634710321</v>
+        <v>0.1760225112868739</v>
       </c>
       <c r="M4">
-        <v>0.3995931291012411</v>
+        <v>0.1965183609127727</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.442136229830965</v>
+        <v>0.7882861530290199</v>
       </c>
       <c r="C5">
-        <v>0.03626102529050357</v>
+        <v>0.05995972215899315</v>
       </c>
       <c r="D5">
-        <v>0.5181970707447192</v>
+        <v>0.2539476701214056</v>
       </c>
       <c r="E5">
-        <v>0.1619147057539685</v>
+        <v>0.06949718920704484</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.565551681334568</v>
+        <v>3.547704936410696</v>
       </c>
       <c r="H5">
-        <v>3.292512954018179</v>
+        <v>2.139715592116659</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05568014804490318</v>
+        <v>0.02796698893752048</v>
       </c>
       <c r="K5">
-        <v>0.8077589847301425</v>
+        <v>0.5482360730591864</v>
       </c>
       <c r="L5">
-        <v>0.416710597049601</v>
+        <v>0.1735213373498254</v>
       </c>
       <c r="M5">
-        <v>0.3992873581519589</v>
+        <v>0.1916899340234863</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.441759627906322</v>
+        <v>0.7842343124352738</v>
       </c>
       <c r="C6">
-        <v>0.03619572304462793</v>
+        <v>0.05977133052857653</v>
       </c>
       <c r="D6">
-        <v>0.5181446052201579</v>
+        <v>0.2533167485734538</v>
       </c>
       <c r="E6">
-        <v>0.1619206546444758</v>
+        <v>0.06943717914644587</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.562977014959614</v>
+        <v>3.538236014052842</v>
       </c>
       <c r="H6">
-        <v>3.291478248487238</v>
+        <v>2.13550678388296</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05567119951908506</v>
+        <v>0.02795372291344611</v>
       </c>
       <c r="K6">
-        <v>0.8073410601899838</v>
+        <v>0.5447483857930706</v>
       </c>
       <c r="L6">
-        <v>0.4167223306163521</v>
+        <v>0.1731097113950852</v>
       </c>
       <c r="M6">
-        <v>0.3992400548398258</v>
+        <v>0.1908932080060382</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.444460072888177</v>
+        <v>0.8124860183544058</v>
       </c>
       <c r="C7">
-        <v>0.03664681655025603</v>
+        <v>0.06107812339248753</v>
       </c>
       <c r="D7">
-        <v>0.5185255448178623</v>
+        <v>0.2577232988871572</v>
       </c>
       <c r="E7">
-        <v>0.1618824818454598</v>
+        <v>0.06985842024129951</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4.580928828720687</v>
+        <v>3.604221320597446</v>
       </c>
       <c r="H7">
-        <v>3.29871360596016</v>
+        <v>2.164862001823622</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0557327922951254</v>
+        <v>0.02804550713170073</v>
       </c>
       <c r="K7">
-        <v>0.8103025169356641</v>
+        <v>0.5690490270388722</v>
       </c>
       <c r="L7">
-        <v>0.4166561317319974</v>
+        <v>0.1759885297693771</v>
       </c>
       <c r="M7">
-        <v>0.3995887728082899</v>
+        <v>0.1964529018349772</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.458513315577079</v>
+        <v>0.9405277427083263</v>
       </c>
       <c r="C8">
-        <v>0.03858397284178849</v>
+        <v>0.06683459715108242</v>
       </c>
       <c r="D8">
-        <v>0.5206211406459573</v>
+        <v>0.2778782939570164</v>
       </c>
       <c r="E8">
-        <v>0.1617911001292107</v>
+        <v>0.07183781619177054</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4.662149957451732</v>
+        <v>3.902335469506511</v>
       </c>
       <c r="H8">
-        <v>3.331963327346045</v>
+        <v>2.298128500474832</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05599177523296994</v>
+        <v>0.02844387199118481</v>
       </c>
       <c r="K8">
-        <v>0.8248700660718953</v>
+        <v>0.6787541224706501</v>
       </c>
       <c r="L8">
-        <v>0.4167407950604272</v>
+        <v>0.189254524053446</v>
       </c>
       <c r="M8">
-        <v>0.4016314539965222</v>
+        <v>0.2217623931638322</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.493740530991317</v>
+        <v>1.206044640382885</v>
       </c>
       <c r="C9">
-        <v>0.04219476107989095</v>
+        <v>0.07820283986222876</v>
       </c>
       <c r="D9">
-        <v>0.5262174432228193</v>
+        <v>0.3203242171030922</v>
       </c>
       <c r="E9">
-        <v>0.1618879004839364</v>
+        <v>0.07619598378904335</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.828672949118754</v>
+        <v>4.516978962460769</v>
       </c>
       <c r="H9">
-        <v>3.401930511998785</v>
+        <v>2.575256155757785</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05645406687424437</v>
+        <v>0.029208327470712</v>
       </c>
       <c r="K9">
-        <v>0.8588257200107137</v>
+        <v>0.9047592491450303</v>
       </c>
       <c r="L9">
-        <v>0.4182572547152716</v>
+        <v>0.2175631461663485</v>
       </c>
       <c r="M9">
-        <v>0.4074444984251109</v>
+        <v>0.2746547583552932</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.524295256288895</v>
+        <v>1.412356391715633</v>
       </c>
       <c r="C10">
-        <v>0.04473693970265913</v>
+        <v>0.08672775956377166</v>
       </c>
       <c r="D10">
-        <v>0.5312339289915116</v>
+        <v>0.3536820261910094</v>
       </c>
       <c r="E10">
-        <v>0.1621265488784367</v>
+        <v>0.07973416496199803</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.955499191467425</v>
+        <v>4.99226707115605</v>
       </c>
       <c r="H10">
-        <v>3.456262470215734</v>
+        <v>2.791012843326655</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05676638214067697</v>
+        <v>0.02976745292603544</v>
       </c>
       <c r="K10">
-        <v>0.8870648165081434</v>
+        <v>1.079544950014991</v>
       </c>
       <c r="L10">
-        <v>0.4201921811055627</v>
+        <v>0.2400487359237502</v>
       </c>
       <c r="M10">
-        <v>0.4128155415928489</v>
+        <v>0.3160027638512233</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.539210316648735</v>
+        <v>1.509261230168136</v>
       </c>
       <c r="C11">
-        <v>0.04587026369598846</v>
+        <v>0.09067478418761965</v>
       </c>
       <c r="D11">
-        <v>0.5337123101557353</v>
+        <v>0.36942627972455</v>
       </c>
       <c r="E11">
-        <v>0.1622713506626745</v>
+        <v>0.08142811506477443</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.01418338459024</v>
+        <v>5.214974441321829</v>
       </c>
       <c r="H11">
-        <v>3.481620377039576</v>
+        <v>2.892430764319727</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05690262483986963</v>
+        <v>0.0300232103046234</v>
       </c>
       <c r="K11">
-        <v>0.9006282079105574</v>
+        <v>1.161484226038766</v>
       </c>
       <c r="L11">
-        <v>0.4212501966082129</v>
+        <v>0.2507162779777872</v>
       </c>
       <c r="M11">
-        <v>0.4154976392904146</v>
+        <v>0.3354779309645934</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.545004207498465</v>
+        <v>1.54645205188271</v>
       </c>
       <c r="C12">
-        <v>0.04629616416309545</v>
+        <v>0.09218229794357313</v>
       </c>
       <c r="D12">
-        <v>0.53467900634584</v>
+        <v>0.3754791122454577</v>
       </c>
       <c r="E12">
-        <v>0.1623313808134483</v>
+        <v>0.08208275537250742</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.036548826708668</v>
+        <v>5.300365943681754</v>
       </c>
       <c r="H12">
-        <v>3.491315366269646</v>
+        <v>2.931363147677189</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05695338541384309</v>
+        <v>0.03012044542893921</v>
       </c>
       <c r="K12">
-        <v>0.9058675242530967</v>
+        <v>1.192910757831783</v>
       </c>
       <c r="L12">
-        <v>0.4216763595351125</v>
+        <v>0.2548255625903693</v>
       </c>
       <c r="M12">
-        <v>0.4165475773418095</v>
+        <v>0.3429599817256488</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.543749903716673</v>
+        <v>1.538419367800088</v>
       </c>
       <c r="C13">
-        <v>0.04620458310802178</v>
+        <v>0.09185700538860431</v>
       </c>
       <c r="D13">
-        <v>0.5344695581640622</v>
+        <v>0.3741713352004865</v>
       </c>
       <c r="E13">
-        <v>0.1623182213410175</v>
+        <v>0.08194116307859289</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.031725658353139</v>
+        <v>5.281926250277309</v>
       </c>
       <c r="H13">
-        <v>3.489223260031451</v>
+        <v>2.922953916667893</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05694249009072472</v>
+        <v>0.03009948382195526</v>
       </c>
       <c r="K13">
-        <v>0.9047345556872415</v>
+        <v>1.186123963219302</v>
       </c>
       <c r="L13">
-        <v>0.4215834437518282</v>
+        <v>0.2539373408791761</v>
       </c>
       <c r="M13">
-        <v>0.4163199303140956</v>
+        <v>0.3413436231997053</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.539684060719992</v>
+        <v>1.512310677136355</v>
       </c>
       <c r="C14">
-        <v>0.04590536786479049</v>
+        <v>0.09079853243594727</v>
       </c>
       <c r="D14">
-        <v>0.5337912761987553</v>
+        <v>0.3699223752990974</v>
       </c>
       <c r="E14">
-        <v>0.1622761853078956</v>
+        <v>0.08148170227557472</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.016020533304697</v>
+        <v>5.221977717667812</v>
       </c>
       <c r="H14">
-        <v>3.482416134768357</v>
+        <v>2.895622830038292</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05690681756931415</v>
+        <v>0.03003120104917922</v>
       </c>
       <c r="K14">
-        <v>0.9010571821715416</v>
+        <v>1.164061433475553</v>
       </c>
       <c r="L14">
-        <v>0.4212847462215876</v>
+        <v>0.251052913597448</v>
       </c>
       <c r="M14">
-        <v>0.4155833314708914</v>
+        <v>0.3360912646246064</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.537212608053352</v>
+        <v>1.496384587992537</v>
       </c>
       <c r="C15">
-        <v>0.04572166653109377</v>
+        <v>0.09015195515632968</v>
       </c>
       <c r="D15">
-        <v>0.5333794782653172</v>
+        <v>0.3673318729470196</v>
       </c>
       <c r="E15">
-        <v>0.1622511133861408</v>
+        <v>0.08120201810217509</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.00641933322072</v>
+        <v>5.185399032341934</v>
       </c>
       <c r="H15">
-        <v>3.478258625577951</v>
+        <v>2.878952269795889</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05688485902913687</v>
+        <v>0.02998943185786862</v>
       </c>
       <c r="K15">
-        <v>0.8988181188632609</v>
+        <v>1.15060085044766</v>
       </c>
       <c r="L15">
-        <v>0.4211051066643279</v>
+        <v>0.2492954064836823</v>
       </c>
       <c r="M15">
-        <v>0.4151366069635145</v>
+        <v>0.3328883692668683</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.523340944248616</v>
+        <v>1.406089522321139</v>
       </c>
       <c r="C16">
-        <v>0.0446624141503662</v>
+        <v>0.08647144428577036</v>
       </c>
       <c r="D16">
-        <v>0.5310759079513332</v>
+        <v>0.3526653060985865</v>
       </c>
       <c r="E16">
-        <v>0.1621178137422774</v>
+        <v>0.07962524647311753</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.951684020645928</v>
+        <v>4.977853567357784</v>
       </c>
       <c r="H16">
-        <v>3.45461820569551</v>
+        <v>2.784455511800928</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05675736161575884</v>
+        <v>0.02975078206861648</v>
       </c>
       <c r="K16">
-        <v>0.8861928512567658</v>
+        <v>1.074242938405291</v>
       </c>
       <c r="L16">
-        <v>0.4201266106830559</v>
+        <v>0.2393609665620744</v>
       </c>
       <c r="M16">
-        <v>0.4126450607386616</v>
+        <v>0.3147443679994879</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.515091124428011</v>
+        <v>1.351516380678703</v>
       </c>
       <c r="C17">
-        <v>0.04400671720284066</v>
+        <v>0.08423322957957424</v>
       </c>
       <c r="D17">
-        <v>0.5297129987037437</v>
+        <v>0.3438198005670472</v>
       </c>
       <c r="E17">
-        <v>0.162045310262922</v>
+        <v>0.07868027608442318</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.918359749691376</v>
+        <v>4.852278617299532</v>
       </c>
       <c r="H17">
-        <v>3.440280137594669</v>
+        <v>2.727361236340101</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05667765753266174</v>
+        <v>0.02960486241434479</v>
       </c>
       <c r="K17">
-        <v>0.8786313770564504</v>
+        <v>1.028054870586857</v>
       </c>
       <c r="L17">
-        <v>0.4195718377552566</v>
+        <v>0.2333833847762179</v>
       </c>
       <c r="M17">
-        <v>0.4111776991594525</v>
+        <v>0.3037919351424847</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.510441644611092</v>
+        <v>1.320410990436443</v>
       </c>
       <c r="C18">
-        <v>0.04362739730705556</v>
+        <v>0.08295216716712872</v>
       </c>
       <c r="D18">
-        <v>0.5289475742145271</v>
+        <v>0.3387851306714822</v>
       </c>
       <c r="E18">
-        <v>0.1620070200520658</v>
+        <v>0.07814463144589823</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.899285685473757</v>
+        <v>4.780654645937062</v>
       </c>
       <c r="H18">
-        <v>3.43209367983647</v>
+        <v>2.694826052915658</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05663126459007284</v>
+        <v>0.02952105372615899</v>
       </c>
       <c r="K18">
-        <v>0.8743497303320851</v>
+        <v>1.001714082584499</v>
       </c>
       <c r="L18">
-        <v>0.41926948625688</v>
+        <v>0.2299860983357149</v>
       </c>
       <c r="M18">
-        <v>0.4103561899284429</v>
+        <v>0.2975542941102418</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.508883834609179</v>
+        <v>1.309926338913669</v>
       </c>
       <c r="C19">
-        <v>0.04349858978352472</v>
+        <v>0.08251941920060801</v>
       </c>
       <c r="D19">
-        <v>0.5286915909338745</v>
+        <v>0.3370893288588519</v>
       </c>
       <c r="E19">
-        <v>0.1619946420762872</v>
+        <v>0.07796459430650771</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.892843519517072</v>
+        <v>4.756504093419579</v>
       </c>
       <c r="H19">
-        <v>3.429332257684933</v>
+        <v>2.683860740710941</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05661546218946789</v>
+        <v>0.02949269299889545</v>
       </c>
       <c r="K19">
-        <v>0.872911633596118</v>
+        <v>0.9928328495740004</v>
       </c>
       <c r="L19">
-        <v>0.4191699918474825</v>
+        <v>0.2288426623545519</v>
       </c>
       <c r="M19">
-        <v>0.4100819032728964</v>
+        <v>0.2954526378387428</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.515959438935369</v>
+        <v>1.357296041455129</v>
       </c>
       <c r="C20">
-        <v>0.04407674247960358</v>
+        <v>0.0844708191518464</v>
       </c>
       <c r="D20">
-        <v>0.5298561699653703</v>
+        <v>0.3447558695022224</v>
       </c>
       <c r="E20">
-        <v>0.1620526753706066</v>
+        <v>0.07878004731991695</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.921897527596997</v>
+        <v>4.865582982934853</v>
       </c>
       <c r="H20">
-        <v>3.441800194965339</v>
+        <v>2.7334071652528</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05668619896449822</v>
+        <v>0.02962038208847773</v>
       </c>
       <c r="K20">
-        <v>0.8794293214919549</v>
+        <v>1.032948008058639</v>
       </c>
       <c r="L20">
-        <v>0.4196291622255472</v>
+        <v>0.2340154338063201</v>
       </c>
       <c r="M20">
-        <v>0.4113315762595988</v>
+        <v>0.304951353527791</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.540874339388694</v>
+        <v>1.519965519971322</v>
       </c>
       <c r="C21">
-        <v>0.0459933427547341</v>
+        <v>0.09110905742105047</v>
       </c>
       <c r="D21">
-        <v>0.5339897394495523</v>
+        <v>0.37116785724929</v>
       </c>
       <c r="E21">
-        <v>0.1622883913818107</v>
+        <v>0.08161629058919573</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.020629623059619</v>
+        <v>5.23955632444887</v>
       </c>
       <c r="H21">
-        <v>3.484413040602817</v>
+        <v>2.903635825362528</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05691731796726973</v>
+        <v>0.03005124533136971</v>
       </c>
       <c r="K21">
-        <v>0.90213451622202</v>
+        <v>1.17053052005906</v>
       </c>
       <c r="L21">
-        <v>0.4213717888635387</v>
+        <v>0.2518981914002154</v>
       </c>
       <c r="M21">
-        <v>0.4157987582943861</v>
+        <v>0.3376310019024586</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.558007908251483</v>
+        <v>1.629195485480381</v>
       </c>
       <c r="C22">
-        <v>0.04722695078961436</v>
+        <v>0.0955241146413357</v>
       </c>
       <c r="D22">
-        <v>0.5368555398563188</v>
+        <v>0.3889638349372149</v>
       </c>
       <c r="E22">
-        <v>0.1624727301669253</v>
+        <v>0.08354731288875428</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.085990622918359</v>
+        <v>5.490197295281689</v>
       </c>
       <c r="H22">
-        <v>3.512802245541764</v>
+        <v>3.017996566395993</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05706352372037493</v>
+        <v>0.03033518656015666</v>
       </c>
       <c r="K22">
-        <v>0.9175749456651658</v>
+        <v>1.262794439586003</v>
       </c>
       <c r="L22">
-        <v>0.4226593956774991</v>
+        <v>0.2639955703167089</v>
       </c>
       <c r="M22">
-        <v>0.4189181419439905</v>
+        <v>0.3596202822897894</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.548785652135848</v>
+        <v>1.570610453076597</v>
       </c>
       <c r="C23">
-        <v>0.04657026944297371</v>
+        <v>0.09315964497274365</v>
       </c>
       <c r="D23">
-        <v>0.5353109929922795</v>
+        <v>0.3794137159803626</v>
       </c>
       <c r="E23">
-        <v>0.1623715787178845</v>
+        <v>0.08250923858141235</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.051029726050388</v>
+        <v>5.355811664067232</v>
       </c>
       <c r="H23">
-        <v>3.497600991981642</v>
+        <v>2.95665525160905</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05698593188858236</v>
+        <v>0.03018336079689066</v>
       </c>
       <c r="K23">
-        <v>0.9092790764284473</v>
+        <v>1.213319318796806</v>
       </c>
       <c r="L23">
-        <v>0.4219585869128082</v>
+        <v>0.2574990838513855</v>
       </c>
       <c r="M23">
-        <v>0.4172350007918695</v>
+        <v>0.3478223091443127</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.515566582846134</v>
+        <v>1.354682221752654</v>
       </c>
       <c r="C24">
-        <v>0.04404509138056767</v>
+        <v>0.08436338731678461</v>
       </c>
       <c r="D24">
-        <v>0.5297913857626213</v>
+        <v>0.3443325153892545</v>
       </c>
       <c r="E24">
-        <v>0.1620493350359133</v>
+        <v>0.07873491705140268</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.920297835031022</v>
+        <v>4.859566310634762</v>
       </c>
       <c r="H24">
-        <v>3.44111280044828</v>
+        <v>2.730672904659201</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05668233915926724</v>
+        <v>0.02961336540070425</v>
       </c>
       <c r="K24">
-        <v>0.8790683666484256</v>
+        <v>1.0307351596947</v>
       </c>
       <c r="L24">
-        <v>0.4196031941384177</v>
+        <v>0.2337295625059994</v>
       </c>
       <c r="M24">
-        <v>0.4112619395915189</v>
+        <v>0.3044269973754155</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.483389854692234</v>
+        <v>1.132432325828688</v>
       </c>
       <c r="C25">
-        <v>0.04123766562749509</v>
+        <v>0.07510683856727951</v>
       </c>
       <c r="D25">
-        <v>0.5245444815273714</v>
+        <v>0.3084903494295048</v>
       </c>
       <c r="E25">
-        <v>0.1618322416534674</v>
+        <v>0.07496149034927058</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4.782841574439345</v>
+        <v>4.346957464589963</v>
       </c>
       <c r="H25">
-        <v>3.382490143734657</v>
+        <v>2.49834819410691</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05633383685458337</v>
+        <v>0.02900256797187861</v>
       </c>
       <c r="K25">
-        <v>0.8490622412420237</v>
+        <v>0.84224876905364</v>
       </c>
       <c r="L25">
-        <v>0.4177026993107091</v>
+        <v>0.2096311132418123</v>
       </c>
       <c r="M25">
-        <v>0.4056785996395078</v>
+        <v>0.259948047665393</v>
       </c>
       <c r="N25">
         <v>0</v>
